--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeogheganE\Desktop\CODE\Workforce Optimisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeogheganE\Desktop\CODE\Workforce-Optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="17220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>9.8000000000000007</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,6 +16,7 @@
     <sheet name="People" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -525,7 +526,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:D53"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
